--- a/tTraceCond1.xlsx
+++ b/tTraceCond1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\Work\Projects\tTraceTest1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Downloads\tTraceTest1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F13A8B6-F377-4C5F-81CE-8B55A280B464}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0DC0A3-7273-4BE7-8483-00B0BE98368D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16536" windowHeight="8832" xr2:uid="{46A5EA25-1E5E-4307-ADC4-1C89CBA21B04}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E68011-A90F-44C0-B8E3-C397E79440B0}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,327 +406,647 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0.4</v>
+      </c>
+      <c r="B2">
         <v>0.3</v>
-      </c>
-      <c r="B2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="B3">
-        <v>0.28000000000000003</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="B4">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.4</v>
+        <v>-0.33</v>
       </c>
       <c r="B5">
-        <v>0.36</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
       <c r="B7">
-        <v>0.34</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.17</v>
+        <v>-0.08</v>
       </c>
       <c r="B8">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.05</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B9">
-        <v>0.16</v>
+        <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="B10">
-        <v>0.18</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="B11">
-        <v>0.28999999999999998</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="B12">
-        <v>0.35</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="B14">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.04</v>
+        <v>-0.15</v>
       </c>
       <c r="B15">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="B16">
-        <v>0.22</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.26</v>
+        <v>-0.23</v>
       </c>
       <c r="B17">
-        <v>0.09</v>
+        <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="B18">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.06</v>
+        <v>-0.17</v>
       </c>
       <c r="B19">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.25</v>
+        <v>-0.03</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="B21">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.14000000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="B22">
-        <v>0.39</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="B23">
-        <v>0.03</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="B24">
-        <v>0.31</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.13</v>
+        <v>-0.35</v>
       </c>
       <c r="B25">
-        <v>0.25</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.38</v>
+        <v>-0.27</v>
       </c>
       <c r="B26">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="B27">
-        <v>0.37</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="B28">
-        <v>0.15</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.1</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="B29">
-        <v>0.26</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>-0.32</v>
+      </c>
+      <c r="B30">
         <v>0.23</v>
-      </c>
-      <c r="B30">
-        <v>0.11</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.28999999999999998</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="B31">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.32</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="B32">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.39</v>
+        <v>-0.19</v>
       </c>
       <c r="B33">
-        <v>0.17</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="B34">
-        <v>0.14000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="B35">
-        <v>0.33</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="B36">
-        <v>0.06</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.16</v>
+        <v>-0.02</v>
       </c>
       <c r="B37">
-        <v>0.23</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="B39">
-        <v>0.1</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.26</v>
       </c>
       <c r="B40">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
+        <v>-0.09</v>
+      </c>
+      <c r="B41">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-0.34</v>
+      </c>
+      <c r="B42">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.17</v>
+      </c>
+      <c r="B43">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-0.37</v>
+      </c>
+      <c r="B44">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.22</v>
+      </c>
+      <c r="B45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.24</v>
+      </c>
+      <c r="B46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-0.04</v>
+      </c>
+      <c r="B47">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-0.2</v>
+      </c>
+      <c r="B48">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-0.36</v>
+      </c>
+      <c r="B49">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B50">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.32</v>
+      </c>
+      <c r="B51">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-0.4</v>
+      </c>
+      <c r="B52">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-0.31</v>
+      </c>
+      <c r="B53">
         <v>0.08</v>
       </c>
-      <c r="B41">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0.27</v>
+      </c>
+      <c r="B54">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.08</v>
+      </c>
+      <c r="B55">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.16</v>
+      </c>
+      <c r="B56">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-0.1</v>
+      </c>
+      <c r="B57">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.37</v>
+      </c>
+      <c r="B58">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.12</v>
+      </c>
+      <c r="B59">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="B60">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-0.24</v>
+      </c>
+      <c r="B61">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-0.3</v>
+      </c>
+      <c r="B62">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-0.21</v>
+      </c>
+      <c r="B63">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-0.39</v>
+      </c>
+      <c r="B64">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>0.3</v>
       </c>
+      <c r="B65">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-0.01</v>
+      </c>
+      <c r="B66">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.35</v>
+      </c>
+      <c r="B67">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.2</v>
+      </c>
+      <c r="B68">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.05</v>
+      </c>
+      <c r="B69">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-0.11</v>
+      </c>
+      <c r="B70">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.21</v>
+      </c>
+      <c r="B71">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.03</v>
+      </c>
+      <c r="B72">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>-0.06</v>
+      </c>
+      <c r="B73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>-0.18</v>
+      </c>
+      <c r="B74">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.23</v>
+      </c>
+      <c r="B75">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>-0.16</v>
+      </c>
+      <c r="B76">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.18</v>
+      </c>
+      <c r="B77">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="B78">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>-0.38</v>
+      </c>
+      <c r="B79">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>-0.25</v>
+      </c>
+      <c r="B80">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B81">
+        <v>0.26</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D41">
-    <sortCondition ref="D2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E81">
+    <sortCondition ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
